--- a/แผนการผลิตเครื่องทอ E1-E37-C11-C12.xlsx
+++ b/แผนการผลิตเครื่องทอ E1-E37-C11-C12.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6300964\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataOrder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A35CC0-75D0-4416-8CE1-B63DFE9F3CDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE76FAA-80F3-4939-890D-96428EBA5A93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E1" sheetId="3" r:id="rId1"/>
@@ -1983,8 +1983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADC29F5-CBF8-45F9-962C-907D5161646F}">
   <dimension ref="A1:AP35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AC9" sqref="AC9"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AO1" sqref="AO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1992,7 +1992,7 @@
     <col min="1" max="1" width="15.21875" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" style="10" bestFit="1" customWidth="1"/>
@@ -2000,8 +2000,8 @@
     <col min="9" max="9" width="9.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5546875" style="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" style="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.21875" style="10" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.21875" style="10" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.5546875" style="10" bestFit="1" customWidth="1"/>
@@ -2016,20 +2016,20 @@
     <col min="25" max="25" width="12.88671875" style="10" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13" style="10" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="10.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.5546875" style="10" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="6" style="10" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8.5546875" style="10" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.44140625" style="10" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="5.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="5.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14" style="10" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="10.21875" style="10" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="7.44140625" style="10" customWidth="1"/>
     <col min="39" max="39" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="12.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="6.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.88671875" style="10" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="14.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="43" max="16384" width="8.88671875" style="10"/>
   </cols>
